--- a/DataCompilation/CompiledData.xlsx
+++ b/DataCompilation/CompiledData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="400" windowWidth="28320" windowHeight="16780" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-160" yWindow="20" windowWidth="28900" windowHeight="16860" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="N=100000" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="N=300000" sheetId="3" r:id="rId3"/>
     <sheet name="N=400000" sheetId="4" r:id="rId4"/>
     <sheet name="N=500000" sheetId="5" r:id="rId5"/>
+    <sheet name="FC++ 100000" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="49">
   <si>
     <t>N = 100000</t>
   </si>
@@ -156,6 +157,21 @@
   <si>
     <t>N = 500000</t>
   </si>
+  <si>
+    <t xml:space="preserve">execution </t>
+  </si>
+  <si>
+    <t>Function time</t>
+  </si>
+  <si>
+    <t>memroy overflowed again</t>
+  </si>
+  <si>
+    <t>FC++ Exec Time</t>
+  </si>
+  <si>
+    <t>FC++ Func Time</t>
+  </si>
 </sst>
 </file>
 
@@ -220,8 +236,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -325,7 +351,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -371,6 +397,11 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -416,6 +447,11 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1293,11 +1329,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2088844680"/>
-        <c:axId val="-2120313512"/>
+        <c:axId val="2114110328"/>
+        <c:axId val="2114240024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2088844680"/>
+        <c:axId val="2114110328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1342,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120313512"/>
+        <c:crossAx val="2114240024"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120313512"/>
+        <c:axId val="2114240024"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1329,7 +1365,7 @@
         <c:spPr>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="-2088844680"/>
+        <c:crossAx val="2114110328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2227,11 +2263,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2036972808"/>
-        <c:axId val="-2036969672"/>
+        <c:axId val="2139925608"/>
+        <c:axId val="2139928664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2036972808"/>
+        <c:axId val="2139925608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2276,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2036969672"/>
+        <c:crossAx val="2139928664"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2248,7 +2284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036969672"/>
+        <c:axId val="2139928664"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2260,7 +2296,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2036972808"/>
+        <c:crossAx val="2139925608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3071,11 +3107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2038388392"/>
-        <c:axId val="-2038653480"/>
+        <c:axId val="2139867752"/>
+        <c:axId val="2139855304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2038388392"/>
+        <c:axId val="2139867752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3084,7 +3120,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038653480"/>
+        <c:crossAx val="2139855304"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3092,7 +3128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038653480"/>
+        <c:axId val="2139855304"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3104,7 +3140,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038388392"/>
+        <c:crossAx val="2139867752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4092,11 +4128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070815688"/>
-        <c:axId val="-2070576360"/>
+        <c:axId val="2139731304"/>
+        <c:axId val="2139734360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070815688"/>
+        <c:axId val="2139731304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +4141,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070576360"/>
+        <c:crossAx val="2139734360"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4113,7 +4149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070576360"/>
+        <c:axId val="2139734360"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4125,7 +4161,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070815688"/>
+        <c:crossAx val="2139731304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5017,11 +5053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2064631480"/>
-        <c:axId val="-2071573080"/>
+        <c:axId val="2139793736"/>
+        <c:axId val="2139796792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2064631480"/>
+        <c:axId val="2139793736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,7 +5066,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071573080"/>
+        <c:crossAx val="2139796792"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5038,7 +5074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071573080"/>
+        <c:axId val="2139796792"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5050,7 +5086,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064631480"/>
+        <c:crossAx val="2139793736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5864,11 +5900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2039814040"/>
-        <c:axId val="-2040176792"/>
+        <c:axId val="2139846216"/>
+        <c:axId val="2139849272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2039814040"/>
+        <c:axId val="2139846216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5877,7 +5913,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2040176792"/>
+        <c:crossAx val="2139849272"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5885,7 +5921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040176792"/>
+        <c:axId val="2139849272"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5897,7 +5933,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2039814040"/>
+        <c:crossAx val="2139846216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5954,7 +5990,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6885,11 +6920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2040170376"/>
-        <c:axId val="-2038546504"/>
+        <c:axId val="2139539448"/>
+        <c:axId val="2139542504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2040170376"/>
+        <c:axId val="2139539448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +6933,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038546504"/>
+        <c:crossAx val="2139542504"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6906,7 +6941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038546504"/>
+        <c:axId val="2139542504"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6918,7 +6953,596 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2040170376"/>
+        <c:crossAx val="2139539448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Husky</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs FC++ integers  100,000 units</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FC++ 100000'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HUSKY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FC++ 100000'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>cons:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>concat2:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>concat1:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tail:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>init:</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>at:</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse:</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>foldl:</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>foldr:</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scanl:</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>scanr:</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>map:</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>concatMap:</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>zip:</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zip3:</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>zipWith:</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>zipWith3:</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>unzip:</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>unzip3:</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>filter:</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>take:</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>takeWhile:</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>drop:</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dropWhile:</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>span_container:</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>break_container:</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>splitAt:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FC++ 100000'!$B$4:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FC++ 100000'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FC++ Exec Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FC++ 100000'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>cons:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>concat2:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>concat1:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tail:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>init:</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>at:</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse:</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>foldl:</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>foldr:</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scanl:</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>scanr:</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>map:</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>concatMap:</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>zip:</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zip3:</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>zipWith:</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>zipWith3:</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>unzip:</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>unzip3:</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>filter:</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>take:</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>takeWhile:</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>drop:</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dropWhile:</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>span_container:</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>break_container:</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>splitAt:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FC++ 100000'!$C$4:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>297497.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>582293.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>888153.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293652.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290040.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>581194.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287335.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>445169.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50657.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FC++ 100000'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FC++ Func Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FC++ 100000'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>cons:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>concat2:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>concat1:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tail:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>init:</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>at:</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>reverse:</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>foldl:</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>foldr:</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scanl:</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>scanr:</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>map:</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>concatMap:</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>zip:</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zip3:</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>zipWith:</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>zipWith3:</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>unzip:</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>unzip3:</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>filter:</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>take:</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>takeWhile:</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>drop:</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dropWhile:</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>span_container:</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>break_container:</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>splitAt:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FC++ 100000'!$D$4:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292030.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154705.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2134954152"/>
+        <c:axId val="2134955560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2134954152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134955560"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134955560"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="0.01"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134954152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7725,11 +8349,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069377832"/>
-        <c:axId val="-2096997720"/>
+        <c:axId val="2114026104"/>
+        <c:axId val="2114173080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069377832"/>
+        <c:axId val="2114026104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7738,7 +8362,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096997720"/>
+        <c:crossAx val="2114173080"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7746,7 +8370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096997720"/>
+        <c:axId val="2114173080"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7758,7 +8382,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069377832"/>
+        <c:crossAx val="2114026104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8746,11 +9370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2044299304"/>
-        <c:axId val="-2044637800"/>
+        <c:axId val="2087291928"/>
+        <c:axId val="2114064952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2044299304"/>
+        <c:axId val="2087291928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8759,7 +9383,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044637800"/>
+        <c:crossAx val="2114064952"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8767,7 +9391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044637800"/>
+        <c:axId val="2114064952"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8779,7 +9403,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044299304"/>
+        <c:crossAx val="2087291928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8836,7 +9460,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9671,11 +10294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2090692104"/>
-        <c:axId val="-2068618808"/>
+        <c:axId val="2133259784"/>
+        <c:axId val="2133262840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2090692104"/>
+        <c:axId val="2133259784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9684,7 +10307,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068618808"/>
+        <c:crossAx val="2133262840"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9692,7 +10315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068618808"/>
+        <c:axId val="2133262840"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -9704,14 +10327,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090692104"/>
+        <c:crossAx val="2133259784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9761,7 +10383,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10515,11 +11136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070231032"/>
-        <c:axId val="-2071962536"/>
+        <c:axId val="2133251672"/>
+        <c:axId val="2034018696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070231032"/>
+        <c:axId val="2133251672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10528,7 +11149,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071962536"/>
+        <c:crossAx val="2034018696"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10536,7 +11157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071962536"/>
+        <c:axId val="2034018696"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -10548,14 +11169,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070231032"/>
+        <c:crossAx val="2133251672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11536,11 +12156,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2068099848"/>
-        <c:axId val="-2044011912"/>
+        <c:axId val="2133401080"/>
+        <c:axId val="2133404136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2068099848"/>
+        <c:axId val="2133401080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11549,7 +12169,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044011912"/>
+        <c:crossAx val="2133404136"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11557,7 +12177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044011912"/>
+        <c:axId val="2133404136"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -11569,7 +12189,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068099848"/>
+        <c:crossAx val="2133401080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11626,7 +12246,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12461,11 +13080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066328760"/>
-        <c:axId val="-2066354008"/>
+        <c:axId val="2133127928"/>
+        <c:axId val="2133130984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066328760"/>
+        <c:axId val="2133127928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12474,7 +13093,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066354008"/>
+        <c:crossAx val="2133130984"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12482,7 +13101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066354008"/>
+        <c:axId val="2133130984"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -12494,14 +13113,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066328760"/>
+        <c:crossAx val="2133127928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12551,7 +13169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13305,11 +13922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2041243048"/>
-        <c:axId val="-2041241144"/>
+        <c:axId val="2140089672"/>
+        <c:axId val="2140073176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2041243048"/>
+        <c:axId val="2140089672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13318,7 +13935,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2041241144"/>
+        <c:crossAx val="2140073176"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13326,7 +13943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2041241144"/>
+        <c:axId val="2140073176"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -13338,14 +13955,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2041243048"/>
+        <c:crossAx val="2140089672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14326,11 +14942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2038642120"/>
-        <c:axId val="-2038125048"/>
+        <c:axId val="2140008952"/>
+        <c:axId val="2140012008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2038642120"/>
+        <c:axId val="2140008952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14339,7 +14955,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038125048"/>
+        <c:crossAx val="2140012008"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14347,7 +14963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038125048"/>
+        <c:axId val="2140012008"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -14359,7 +14975,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038642120"/>
+        <c:crossAx val="2140008952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14856,6 +15472,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15180,8 +15831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18856,7 +19507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="G63" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A65" sqref="A65:F96"/>
     </sheetView>
   </sheetViews>
@@ -20081,7 +20732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -21302,4 +21953,719 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <f>297.497*1000</f>
+        <v>297497</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>582.293*1000</f>
+        <v>582293</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <f>888.153*1000</f>
+        <v>888153</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <f>293.652*1000</f>
+        <v>293652</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C8">
+        <f>290.04*1000</f>
+        <v>290040</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>581.194*1000</f>
+        <v>581194</v>
+      </c>
+      <c r="D9">
+        <v>292030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>287335</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>445.169 * 1000</f>
+        <v>445169</v>
+      </c>
+      <c r="D11">
+        <v>154705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1000000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>50.657*1000</f>
+        <v>50657</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/DataCompilation/CompiledData.xlsx
+++ b/DataCompilation/CompiledData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larissa\Desktop\C++Project\Husky\DataCompilation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic_000\Documents\COMSW4995\Final Project\FunctionalLibrary\DataCompilation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-156" yWindow="24" windowWidth="28896" windowHeight="16860" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-150" yWindow="30" windowWidth="28890" windowHeight="16860" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="N=100000" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1342,11 +1341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162398960"/>
-        <c:axId val="162396216"/>
+        <c:axId val="326701440"/>
+        <c:axId val="326701832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162398960"/>
+        <c:axId val="326701440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1355,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162396216"/>
+        <c:crossAx val="326701832"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1364,7 +1363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162396216"/>
+        <c:axId val="326701832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1379,20 +1378,17 @@
         <c:spPr>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="162398960"/>
+        <c:crossAx val="326701440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="hundreds"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2276,11 +2272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163910120"/>
-        <c:axId val="163907768"/>
+        <c:axId val="373306784"/>
+        <c:axId val="373307960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163910120"/>
+        <c:axId val="373306784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2286,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163907768"/>
+        <c:crossAx val="373307960"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2298,7 +2294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163907768"/>
+        <c:axId val="373307960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2310,7 +2306,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163910120"/>
+        <c:crossAx val="373306784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3119,11 +3115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163908552"/>
-        <c:axId val="242010368"/>
+        <c:axId val="373301296"/>
+        <c:axId val="373302864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163908552"/>
+        <c:axId val="373301296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3133,7 +3129,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242010368"/>
+        <c:crossAx val="373302864"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3141,7 +3137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242010368"/>
+        <c:axId val="373302864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3153,7 +3149,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163908552"/>
+        <c:crossAx val="373301296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4139,11 +4135,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="242012328"/>
-        <c:axId val="242013112"/>
+        <c:axId val="328033376"/>
+        <c:axId val="328030632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242012328"/>
+        <c:axId val="328033376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4153,7 +4149,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242013112"/>
+        <c:crossAx val="328030632"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4161,7 +4157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242013112"/>
+        <c:axId val="328030632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4173,7 +4169,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242012328"/>
+        <c:crossAx val="328033376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5063,11 +5059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="242012720"/>
-        <c:axId val="242015072"/>
+        <c:axId val="328037296"/>
+        <c:axId val="328034160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242012720"/>
+        <c:axId val="328037296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5077,7 +5073,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242015072"/>
+        <c:crossAx val="328034160"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5085,7 +5081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242015072"/>
+        <c:axId val="328034160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5097,7 +5093,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242012720"/>
+        <c:crossAx val="328037296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5909,11 +5905,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="242010760"/>
-        <c:axId val="242015464"/>
+        <c:axId val="328034552"/>
+        <c:axId val="328031024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242010760"/>
+        <c:axId val="328034552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5923,7 +5919,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242015464"/>
+        <c:crossAx val="328031024"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5931,7 +5927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242015464"/>
+        <c:axId val="328031024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5943,7 +5939,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242010760"/>
+        <c:crossAx val="328034552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6929,11 +6925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="242008800"/>
-        <c:axId val="242014288"/>
+        <c:axId val="328037688"/>
+        <c:axId val="328036120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242008800"/>
+        <c:axId val="328037688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6943,7 +6939,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242014288"/>
+        <c:crossAx val="328036120"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6951,7 +6947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242014288"/>
+        <c:axId val="328036120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6963,7 +6959,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242008800"/>
+        <c:crossAx val="328037688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7376,6 +7372,9 @@
                 <c:pt idx="22">
                   <c:v>595489</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7542,11 +7541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="242009192"/>
-        <c:axId val="242009584"/>
+        <c:axId val="328034944"/>
+        <c:axId val="328030240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242009192"/>
+        <c:axId val="328034944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,7 +7555,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242009584"/>
+        <c:crossAx val="328030240"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7564,7 +7563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242009584"/>
+        <c:axId val="328030240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7577,7 +7576,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242009192"/>
+        <c:crossAx val="328034944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7630,7 +7629,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8384,11 +8382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162391904"/>
-        <c:axId val="162392688"/>
+        <c:axId val="326699480"/>
+        <c:axId val="326698304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162391904"/>
+        <c:axId val="326699480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8398,7 +8396,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162392688"/>
+        <c:crossAx val="326698304"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8406,7 +8404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162392688"/>
+        <c:axId val="326698304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8418,14 +8416,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162391904"/>
+        <c:crossAx val="326699480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8475,7 +8472,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9406,11 +9402,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163905416"/>
-        <c:axId val="163912472"/>
+        <c:axId val="326704184"/>
+        <c:axId val="326703792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163905416"/>
+        <c:axId val="326704184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9420,7 +9416,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163912472"/>
+        <c:crossAx val="326703792"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9428,7 +9424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163912472"/>
+        <c:axId val="326703792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9440,14 +9436,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163905416"/>
+        <c:crossAx val="326704184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10331,11 +10326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163909336"/>
-        <c:axId val="163912080"/>
+        <c:axId val="326698696"/>
+        <c:axId val="326699088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163909336"/>
+        <c:axId val="326698696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10345,7 +10340,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163912080"/>
+        <c:crossAx val="326699088"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10353,7 +10348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163912080"/>
+        <c:axId val="326699088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10365,7 +10360,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163909336"/>
+        <c:crossAx val="326698696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11174,11 +11169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163908944"/>
-        <c:axId val="163911688"/>
+        <c:axId val="373305216"/>
+        <c:axId val="373303648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163908944"/>
+        <c:axId val="373305216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11188,7 +11183,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163911688"/>
+        <c:crossAx val="373303648"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11196,7 +11191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163911688"/>
+        <c:axId val="373303648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11208,7 +11203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163908944"/>
+        <c:crossAx val="373305216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11264,7 +11259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12195,11 +12189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163912864"/>
-        <c:axId val="162393080"/>
+        <c:axId val="373300904"/>
+        <c:axId val="373302080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163912864"/>
+        <c:axId val="373300904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12209,7 +12203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162393080"/>
+        <c:crossAx val="373302080"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12217,7 +12211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162393080"/>
+        <c:axId val="373302080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12229,14 +12223,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163912864"/>
+        <c:crossAx val="373300904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13120,11 +13113,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162393864"/>
-        <c:axId val="162395432"/>
+        <c:axId val="373304432"/>
+        <c:axId val="373304824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162393864"/>
+        <c:axId val="373304432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13134,7 +13127,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162395432"/>
+        <c:crossAx val="373304824"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13142,7 +13135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162395432"/>
+        <c:axId val="373304824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13154,7 +13147,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162393864"/>
+        <c:crossAx val="373304432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13963,11 +13956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163905808"/>
-        <c:axId val="163910904"/>
+        <c:axId val="373306392"/>
+        <c:axId val="373305608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163905808"/>
+        <c:axId val="373306392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13977,7 +13970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163910904"/>
+        <c:crossAx val="373305608"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13985,7 +13978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163910904"/>
+        <c:axId val="373305608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13997,7 +13990,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163905808"/>
+        <c:crossAx val="373306392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14053,7 +14046,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14984,11 +14976,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163909728"/>
-        <c:axId val="163910512"/>
+        <c:axId val="373301688"/>
+        <c:axId val="373302472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163909728"/>
+        <c:axId val="373301688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14998,7 +14990,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163910512"/>
+        <c:crossAx val="373302472"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15006,7 +14998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163910512"/>
+        <c:axId val="373302472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15018,14 +15010,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163909728"/>
+        <c:crossAx val="373301688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15878,18 +15869,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -15909,7 +15900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -15923,7 +15914,7 @@
         <v>0.92733333333335111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -15937,7 +15928,7 @@
         <v>1.7359999999999733</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -15949,7 +15940,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -15963,7 +15954,7 @@
         <v>0.504000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -15977,7 +15968,7 @@
         <v>0.46800000000000502</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -15991,7 +15982,7 @@
         <v>1.3333333333346647E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -16005,7 +15996,7 @@
         <v>0.48566666666668029</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -16022,7 +16013,7 @@
         <v>12.050999999999968</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -16037,7 +16028,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -16049,7 +16040,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -16061,7 +16052,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -16078,7 +16069,7 @@
         <v>2.3333333332894043E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -16093,7 +16084,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -16110,7 +16101,7 @@
         <v>1.6666666666405744E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -16124,7 +16115,7 @@
         <v>9.9999999999174339E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -16141,7 +16132,7 @@
         <v>26.775999999999968</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -16155,7 +16146,7 @@
         <v>43.769000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -16169,7 +16160,7 @@
         <v>37.184666666666601</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -16183,7 +16174,7 @@
         <v>1.6666666666775843E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -16197,7 +16188,7 @@
         <v>1.3333333333716668E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -16211,7 +16202,7 @@
         <v>5.1666666666709028E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -16225,7 +16216,7 @@
         <v>5.3333333332646433E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -16239,7 +16230,7 @@
         <v>0.74499999999999511</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -16253,7 +16244,7 @@
         <v>1.3333333332976587E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -16267,7 +16258,7 @@
         <v>1.3333333333716707E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -16281,7 +16272,7 @@
         <v>2.3333333333634201E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -16295,12 +16286,12 @@
         <v>0.77699999999995339</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -16320,7 +16311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -16331,7 +16322,7 @@
         <v>0.87733333333332197</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -16342,7 +16333,7 @@
         <v>1.8810000000000164</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -16351,7 +16342,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -16362,7 +16353,7 @@
         <v>0.78900000000002068</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -16373,7 +16364,7 @@
         <v>0.81199999999997907</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -16384,7 +16375,7 @@
         <v>9.9999999999174816E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -16395,7 +16386,7 @@
         <v>0.78333333333333899</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -16409,7 +16400,7 @@
         <v>28.310999999999968</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -16420,7 +16411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -16428,7 +16419,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -16436,7 +16427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -16450,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -16461,7 +16452,7 @@
         <v>83.666666666666671</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -16475,7 +16466,7 @@
         <v>6.6666666664882762E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -16486,7 +16477,7 @@
         <v>1.3333333332976541E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -16500,7 +16491,7 @@
         <v>194.16266666666669</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -16511,7 +16502,7 @@
         <v>295.59699999999901</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -16522,7 +16513,7 @@
         <v>66.049666666666596</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -16533,7 +16524,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -16544,7 +16535,7 @@
         <v>6.6666666668583664E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -16555,7 +16546,7 @@
         <v>7.3333333333369596E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -16566,7 +16557,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -16577,7 +16568,7 @@
         <v>0.81733333333329894</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -16588,7 +16579,7 @@
         <v>6.6666666661182195E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -16599,7 +16590,7 @@
         <v>9.9999999999174534E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -16610,7 +16601,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -16621,12 +16612,12 @@
         <v>0.71999999999997932</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -16646,7 +16637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -16660,7 +16651,7 @@
         <v>1.0266666666666724</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -16674,7 +16665,7 @@
         <v>2.0666666666666567</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -16686,7 +16677,7 @@
       </c>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -16700,7 +16691,7 @@
         <v>0.93200000000000627</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -16714,7 +16705,7 @@
         <v>0.99733333333331198</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -16728,7 +16719,7 @@
         <v>3.3333333332441468E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -16742,7 +16733,7 @@
         <v>0.92699999999999239</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -16759,7 +16750,7 @@
         <v>17.493666666666602</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -16773,7 +16764,7 @@
         <v>60415.666666666664</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -16784,7 +16775,7 @@
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -16795,7 +16786,7 @@
         <v>2.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -16812,7 +16803,7 @@
         <v>3.3333333330591098E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -16826,7 +16817,7 @@
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -16843,7 +16834,7 @@
         <v>6.6666666664882762E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -16857,7 +16848,7 @@
         <v>3.3333333334291669E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -16874,7 +16865,7 @@
         <v>38.0133333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -16888,7 +16879,7 @@
         <v>71.686666666666625</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -16902,7 +16893,7 @@
         <v>32.979333333333265</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -16916,7 +16907,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -16930,7 +16921,7 @@
         <v>3.2066666666666506</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -16944,7 +16935,7 @@
         <v>8.8763333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -16958,7 +16949,7 @@
         <v>0.69700000000002138</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -16972,7 +16963,7 @@
         <v>1.9793333333331802</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -16986,7 +16977,7 @@
         <v>9.9999999999174772E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -17000,7 +16991,7 @@
         <v>8.5000000000038392E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -17014,7 +17005,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -17028,7 +17019,7 @@
         <v>0.9086666666666684</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -17042,7 +17033,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -17056,7 +17047,7 @@
         <v>3.3333333330591098E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -17070,7 +17061,7 @@
         <v>1.3333333334456833E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -17104,18 +17095,18 @@
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -17135,7 +17126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -17149,7 +17140,7 @@
         <v>2.40566666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -17163,7 +17154,7 @@
         <v>3.76799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -17175,7 +17166,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -17189,7 +17180,7 @@
         <v>1.0633333333333368</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -17203,7 +17194,7 @@
         <v>1.0013333333333323</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -17217,7 +17208,7 @@
         <v>1.9999999999464799E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -17231,7 +17222,7 @@
         <v>1.0023333333333579</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -17248,7 +17239,7 @@
         <v>23.328666666666603</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -17263,7 +17254,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -17274,7 +17265,7 @@
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -17285,7 +17276,7 @@
         <v>3.0000000000000005E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -17302,7 +17293,7 @@
         <v>2.3333333333634167E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -17316,7 +17307,7 @@
         <v>2.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -17333,7 +17324,7 @@
         <v>1.6666666667515945E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -17347,7 +17338,7 @@
         <v>9.9999999991773293E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -17364,7 +17355,7 @@
         <v>50.226333333333265</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -17378,7 +17369,7 @@
         <v>86.869666666666674</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -17392,7 +17383,7 @@
         <v>78.294666666666799</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -17406,7 +17397,7 @@
         <v>1.9999999998354628E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -17420,7 +17411,7 @@
         <v>2.0000000001315198E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -17434,7 +17425,7 @@
         <v>5.6666666666741805E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -17448,7 +17439,7 @@
         <v>5.3333333334866931E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -17462,7 +17453,7 @@
         <v>1.7470000000000867</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -17476,7 +17467,7 @@
         <v>1.3333333333716668E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -17490,7 +17481,7 @@
         <v>1.3333333332236394E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -17504,7 +17495,7 @@
         <v>2.3333333335114467E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -17518,12 +17509,12 @@
         <v>1.25566666666676</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -17543,7 +17534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -17554,7 +17545,7 @@
         <v>2.1323333333333232</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -17565,7 +17556,7 @@
         <v>4.1133333333332969</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -17574,7 +17565,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -17585,7 +17576,7 @@
         <v>1.4393333333333433</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -17596,7 +17587,7 @@
         <v>1.4273333333333345</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -17607,7 +17598,7 @@
         <v>9.9999999999174339E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -17618,7 +17609,7 @@
         <v>1.451333333333318</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -17632,7 +17623,7 @@
         <v>43.747666666666639</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -17644,7 +17635,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -17652,7 +17643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -17660,7 +17651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -17674,7 +17665,7 @@
         <v>1.6666666666775808E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -17685,7 +17676,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -17699,7 +17690,7 @@
         <v>6.6666666668583425E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -17710,7 +17701,7 @@
         <v>3.3333333330591098E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -17724,7 +17715,7 @@
         <v>272.22466666666662</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -17735,7 +17726,7 @@
         <v>420.13866666666627</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -17746,7 +17737,7 @@
         <v>85.206333333333404</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -17757,7 +17748,7 @@
         <v>9.9999999999174339E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -17768,7 +17759,7 @@
         <v>1.3333333333716698E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -17779,7 +17770,7 @@
         <v>6.8666666666642798E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -17790,7 +17781,7 @@
         <v>2.3333333335114497E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -17801,7 +17792,7 @@
         <v>1.6856666666667632</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -17812,7 +17803,7 @@
         <v>6.6666666661181935E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -17823,7 +17814,7 @@
         <v>6.6666666661181989E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -17834,7 +17825,7 @@
         <v>1.3333333333716694E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -17845,12 +17836,12 @@
         <v>1.4433333333334566</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -17870,7 +17861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -17884,7 +17875,7 @@
         <v>3.14366666666661</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -17898,7 +17889,7 @@
         <v>4.8206666666666935</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -17910,7 +17901,7 @@
       </c>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -17924,7 +17915,7 @@
         <v>1.9580000000000499</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -17938,7 +17929,7 @@
         <v>1.9386666666666432</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -17952,7 +17943,7 @@
         <v>1.00000000002875E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -17966,7 +17957,7 @@
         <v>1.9483333333333601</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -17983,7 +17974,7 @@
         <v>32.060333333333297</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -17998,7 +17989,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -18009,7 +18000,7 @@
         <v>6.6666666666666664E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -18020,7 +18011,7 @@
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -18037,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -18051,7 +18042,7 @@
         <v>2.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -18068,7 +18059,7 @@
         <v>6.6666666661182195E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -18082,7 +18073,7 @@
         <v>9.9999999999174534E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -18099,7 +18090,7 @@
         <v>80.958666666666602</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -18113,7 +18104,7 @@
         <v>143.21966666666631</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -18127,7 +18118,7 @@
         <v>109.71466666666633</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -18141,7 +18132,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -18155,7 +18146,7 @@
         <v>7.5933333333333364</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -18169,7 +18160,7 @@
         <v>20.760666666666534</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -18183,7 +18174,7 @@
         <v>0.62633333333339503</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -18197,7 +18188,7 @@
         <v>3.9043333333334296</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -18211,7 +18202,7 @@
         <v>3.3333333323189602E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -18225,7 +18216,7 @@
         <v>7.7999999999800396E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -18239,7 +18230,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -18253,7 +18244,7 @@
         <v>1.9093333333331632</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -18267,7 +18258,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -18281,7 +18272,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -18295,7 +18286,7 @@
         <v>1.3333333333716694E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -18329,18 +18320,18 @@
       <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -18360,7 +18351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -18374,7 +18365,7 @@
         <v>3.0136666666666136</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -18388,7 +18379,7 @@
         <v>5.6023333333333341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -18400,7 +18391,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -18414,7 +18405,7 @@
         <v>1.86733333333329</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -18428,7 +18419,7 @@
         <v>1.5660000000000267</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -18442,7 +18433,7 @@
         <v>1.3333333332976541E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -18456,7 +18447,7 @@
         <v>2.09400000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -18473,7 +18464,7 @@
         <v>36.816333333333269</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -18487,7 +18478,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -18498,7 +18489,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -18509,7 +18500,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -18526,7 +18517,7 @@
         <v>2.3333333333634201E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -18540,7 +18531,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -18557,7 +18548,7 @@
         <v>1.9999999999094765E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -18571,7 +18562,7 @@
         <v>1.6666666667515967E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -18588,7 +18579,7 @@
         <v>75.810333333333162</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -18602,7 +18593,7 @@
         <v>134.40733333333301</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -18616,7 +18607,7 @@
         <v>185.56233333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -18630,7 +18621,7 @@
         <v>1.3333333335196968E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -18644,7 +18635,7 @@
         <v>1.3333333335196968E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -18658,7 +18649,7 @@
         <v>5.7000000000269758E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -18672,7 +18663,7 @@
         <v>5.6666666665705565E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -18686,7 +18677,7 @@
         <v>2.7743333333329865</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -18700,7 +18691,7 @@
         <v>1.6666666668996232E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -18714,7 +18705,7 @@
         <v>2.3333333333634167E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -18728,7 +18719,7 @@
         <v>1.9999999996874302E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -18742,12 +18733,12 @@
         <v>2.2316666666665537</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -18767,7 +18758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -18778,7 +18769,7 @@
         <v>2.8779999999999304</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -18789,7 +18780,7 @@
         <v>6.811666666666583</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -18798,7 +18789,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -18809,7 +18800,7 @@
         <v>2.6223333333334233</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -18820,7 +18811,7 @@
         <v>2.6303333333334336</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -18831,7 +18822,7 @@
         <v>1.3333333333716707E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -18842,7 +18833,7 @@
         <v>2.9273333333332765</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -18856,7 +18847,7 @@
         <v>86.53033333333326</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -18868,7 +18859,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -18876,7 +18867,7 @@
         <v>70.333333333333329</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -18884,7 +18875,7 @@
         <v>61.333333333333336</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -18898,7 +18889,7 @@
         <v>9.9999999991773098E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -18909,7 +18900,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -18923,7 +18914,7 @@
         <v>3.0000000000492567E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -18934,7 +18925,7 @@
         <v>6.6666666668583664E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -18948,7 +18939,7 @@
         <v>539.48366666666595</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -18959,7 +18950,7 @@
         <v>954.18666666666604</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -18970,7 +18961,7 @@
         <v>232.20499999999967</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -18981,7 +18972,7 @@
         <v>6.6666666646378965E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -18992,7 +18983,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -19003,7 +18994,7 @@
         <v>8.5000000000038725E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -19014,7 +19005,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -19025,7 +19016,7 @@
         <v>3.1163333333334169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -19036,7 +19027,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -19047,7 +19038,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -19058,7 +19049,7 @@
         <v>1.0000000001397699E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -19069,12 +19060,12 @@
         <v>2.6073333333333264</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -19094,7 +19085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -19108,7 +19099,7 @@
         <v>3.8633333333333968</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -19122,7 +19113,7 @@
         <v>7.4900000000001397</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -19134,7 +19125,7 @@
       </c>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -19148,7 +19139,7 @@
         <v>3.2746666666666067</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -19162,7 +19153,7 @@
         <v>2.9996666666666569</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -19176,7 +19167,7 @@
         <v>6.6666666668583425E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -19190,7 +19181,7 @@
         <v>3.6646666666667205</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -19207,7 +19198,7 @@
         <v>54.645666666666635</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -19222,7 +19213,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -19233,7 +19224,7 @@
         <v>6.6666666666666664E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -19244,7 +19235,7 @@
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -19261,7 +19252,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -19275,7 +19266,7 @@
         <v>1.3333333333333333E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -19292,7 +19283,7 @@
         <v>9.9999999999174534E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -19306,7 +19297,7 @@
         <v>1.3333333333716711E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -19323,7 +19314,7 @@
         <v>123.13333333333269</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -19337,7 +19328,7 @@
         <v>218.42166666666563</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -19351,7 +19342,7 @@
         <v>120.21233333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -19365,7 +19356,7 @@
         <v>1.0000000001397699E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -19379,7 +19370,7 @@
         <v>10.155999999999635</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -19393,7 +19384,7 @@
         <v>33.032666666666834</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -19407,7 +19398,7 @@
         <v>0.64733333333322163</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -19421,7 +19412,7 @@
         <v>6.2003333333334334</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -19435,7 +19426,7 @@
         <v>3.3333333308386632E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -19449,7 +19440,7 @@
         <v>8.6000000000178489E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -19463,7 +19454,7 @@
         <v>3.3333333308386632E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -19477,7 +19468,7 @@
         <v>3.3140000000001835</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -19491,7 +19482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -19505,7 +19496,7 @@
         <v>1.0000000001397734E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -19519,7 +19510,7 @@
         <v>1.0000000001397734E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -19554,18 +19545,18 @@
       <selection activeCell="A65" sqref="A65:F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -19585,7 +19576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -19599,7 +19590,7 @@
         <v>4.8043333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -19613,7 +19604,7 @@
         <v>7.4646666666667434</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -19625,7 +19616,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -19639,7 +19630,7 @@
         <v>2.7793333333333901</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -19653,7 +19644,7 @@
         <v>2.2040000000000166</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -19667,7 +19658,7 @@
         <v>1.3333333332976587E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -19681,7 +19672,7 @@
         <v>2.1396666666666468</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -19698,7 +19689,7 @@
         <v>48.517999999999866</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -19713,7 +19704,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -19724,7 +19715,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -19735,7 +19726,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -19752,7 +19743,7 @@
         <v>1.3333333333716668E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -19766,7 +19757,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -19783,7 +19774,7 @@
         <v>2.3333333335114467E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19797,7 +19788,7 @@
         <v>9.9999999999174274E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19805,7 @@
         <v>96.283333333333317</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -19828,7 +19819,7 @@
         <v>172.32599999999934</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -19842,7 +19833,7 @@
         <v>253.00599999999932</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -19856,7 +19847,7 @@
         <v>1.0000000001397699E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -19870,7 +19861,7 @@
         <v>2.3333333333634167E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -19884,7 +19875,7 @@
         <v>5.5333333333370129E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -19898,7 +19889,7 @@
         <v>5.6666666665705565E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -19912,7 +19903,7 @@
         <v>3.9286666666669063</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -19926,7 +19917,7 @@
         <v>1.3333333335196968E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -19940,7 +19931,7 @@
         <v>1.6666666668996232E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -19954,7 +19945,7 @@
         <v>2.6666666667433431E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -19968,12 +19959,12 @@
         <v>3.2326666666670305</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -19993,7 +19984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -20004,7 +19995,7 @@
         <v>4.2499999999999369</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -20015,7 +20006,7 @@
         <v>10.152666666666621</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -20024,7 +20015,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -20035,7 +20026,7 @@
         <v>3.66599999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -20046,7 +20037,7 @@
         <v>3.5156666666666871</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -20057,7 +20048,7 @@
         <v>6.6666666668583425E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -20068,7 +20059,7 @@
         <v>3.4849999999999568</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -20082,7 +20073,7 @@
         <v>107.41799999999967</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -20094,7 +20085,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -20102,7 +20093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -20110,7 +20101,7 @@
         <v>79.666666666666671</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -20124,7 +20115,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -20135,7 +20126,7 @@
         <v>343.66666666666669</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -20149,7 +20140,7 @@
         <v>1.0000000001397699E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -20160,7 +20151,7 @@
         <v>3.3333333323189602E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -20174,7 +20165,7 @@
         <v>800.33999999999924</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -20185,7 +20176,7 @@
         <v>1183.9653333333265</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -20196,7 +20187,7 @@
         <v>297.21166666666664</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -20207,7 +20198,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -20218,7 +20209,7 @@
         <v>1.3333333335196968E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -20229,7 +20220,7 @@
         <v>8.3666666666815034E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -20240,7 +20231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -20251,7 +20242,7 @@
         <v>4.6283333333333792</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -20262,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -20273,7 +20264,7 @@
         <v>1.0000000001397734E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -20284,7 +20275,7 @@
         <v>1.0000000001397699E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -20295,12 +20286,12 @@
         <v>4.2660000000003233</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -20320,7 +20311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -20334,7 +20325,7 @@
         <v>5.2633333333333203</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -20348,7 +20339,7 @@
         <v>11.089666666666602</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -20360,7 +20351,7 @@
       </c>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -20374,7 +20365,7 @@
         <v>5.0523333333332836</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -20388,7 +20379,7 @@
         <v>4.1169999999999964</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -20402,7 +20393,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -20416,7 +20407,7 @@
         <v>3.9730000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -20433,7 +20424,7 @@
         <v>67.894666666666595</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -20448,7 +20439,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -20459,7 +20450,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -20470,7 +20461,7 @@
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -20487,7 +20478,7 @@
         <v>1.3333333335196968E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -20501,7 +20492,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -20518,7 +20509,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -20532,7 +20523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -20549,7 +20540,7 @@
         <v>160.80899999999966</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -20563,7 +20554,7 @@
         <v>295.2456666666663</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -20577,7 +20568,7 @@
         <v>164.84866666666599</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -20591,7 +20582,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -20605,7 +20596,7 @@
         <v>15.160000000000101</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -20619,7 +20610,7 @@
         <v>46.825333333333134</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -20633,7 +20624,7 @@
         <v>0.62866666666661031</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -20647,7 +20638,7 @@
         <v>8.35433333333342</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -20661,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -20675,7 +20666,7 @@
         <v>8.0333333333311871E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -20689,7 +20680,7 @@
         <v>6.6666666646379008E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -20703,7 +20694,7 @@
         <v>4.5433333333333366</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -20717,7 +20708,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -20731,7 +20722,7 @@
         <v>1.0000000001397699E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -20745,7 +20736,7 @@
         <v>1.6666666666035636E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -20779,18 +20770,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -20810,7 +20801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -20824,7 +20815,7 @@
         <v>5.4576666666665767</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -20838,7 +20829,7 @@
         <v>9.7323333333332993</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -20850,7 +20841,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -20864,7 +20855,7 @@
         <v>3.40266666666651</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -20878,7 +20869,7 @@
         <v>3.1399999999998438</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -20892,7 +20883,7 @@
         <v>1.6666666666035658E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -20906,7 +20897,7 @@
         <v>3.1749999999999967</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -20923,7 +20914,7 @@
         <v>62.330333333333236</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -20938,7 +20929,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -20949,7 +20940,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -20960,7 +20951,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -20977,7 +20968,7 @@
         <v>2.3333333333634167E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -20991,7 +20982,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -21008,7 +20999,7 @@
         <v>1.6666666668996232E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -21022,7 +21013,7 @@
         <v>1.3333333333716668E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -21039,7 +21030,7 @@
         <v>119.50399999999934</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -21053,7 +21044,7 @@
         <v>231.49333333333303</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -21067,7 +21058,7 @@
         <v>320.59366666666631</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -21081,7 +21072,7 @@
         <v>1.3333333335196968E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -21095,7 +21086,7 @@
         <v>1.6666666663075031E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -21109,7 +21100,7 @@
         <v>5.7000000000269772E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -21123,7 +21114,7 @@
         <v>6.3333333330343492E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -21137,7 +21128,7 @@
         <v>4.7313333333338603</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -21151,7 +21142,7 @@
         <v>1.6666666657153863E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -21165,7 +21156,7 @@
         <v>2.3333333333634167E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -21179,7 +21170,7 @@
         <v>3.0000000001232699E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -21193,12 +21184,12 @@
         <v>3.6966666666667529</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -21218,7 +21209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -21229,7 +21220,7 @@
         <v>5.4113333333332827</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -21240,7 +21231,7 @@
         <v>12.250666666666733</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -21249,7 +21240,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -21260,7 +21251,7 @@
         <v>5.2383333333333768</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -21271,7 +21262,7 @@
         <v>4.4883333333335003</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -21282,7 +21273,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -21293,7 +21284,7 @@
         <v>4.7539999999998459</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -21307,7 +21298,7 @@
         <v>137.97366666666599</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -21321,7 +21312,7 @@
         <v>9.9999999999174339E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -21329,7 +21320,7 @@
         <v>105.66666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -21337,7 +21328,7 @@
         <v>97.666666666666671</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -21351,7 +21342,7 @@
         <v>9.9999999999174339E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -21362,7 +21353,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -21376,7 +21367,7 @@
         <v>6.6666666675984667E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -21387,7 +21378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -21401,7 +21392,7 @@
         <v>1020.7836666666634</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -21412,7 +21403,7 @@
         <v>1585.28733333333</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -21423,7 +21414,7 @@
         <v>371.20866666666598</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -21434,7 +21425,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -21445,7 +21436,7 @@
         <v>9.9999999984371336E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -21456,7 +21447,7 @@
         <v>8.43333333335749E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -21467,7 +21458,7 @@
         <v>6.6666666705590672E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -21478,7 +21469,7 @@
         <v>5.409000000000213</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -21489,7 +21480,7 @@
         <v>3.3333333308386632E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -21500,7 +21491,7 @@
         <v>1.3333333332236396E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -21511,7 +21502,7 @@
         <v>1.3333333338157569E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -21522,12 +21513,12 @@
         <v>5.0179999999997404</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -21547,7 +21538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -21561,7 +21552,7 @@
         <v>6.5789999999998869</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -21575,7 +21566,7 @@
         <v>15.709000000000168</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -21587,7 +21578,7 @@
       </c>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -21601,7 +21592,7 @@
         <v>6.2330000000000778</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -21615,7 +21606,7 @@
         <v>5.3953333333332631</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -21629,7 +21620,7 @@
         <v>9.9999999999174339E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -21643,7 +21634,7 @@
         <v>5.73600000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -21660,7 +21651,7 @@
         <v>80.488333333333372</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -21675,7 +21666,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -21686,7 +21677,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -21697,7 +21688,7 @@
         <v>2.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -21714,7 +21705,7 @@
         <v>6.6666666646379203E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -21728,7 +21719,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -21745,7 +21736,7 @@
         <v>1.3333333330756119E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -21759,7 +21750,7 @@
         <v>6.6666666646379203E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -21776,7 +21767,7 @@
         <v>201.25299999999967</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -21790,7 +21781,7 @@
         <v>365.255333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -21804,7 +21795,7 @@
         <v>223.286333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -21818,7 +21809,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -21832,7 +21823,7 @@
         <v>18.484666666666666</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -21846,7 +21837,7 @@
         <v>64.176333333333432</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -21860,7 +21851,7 @@
         <v>0.66333333333368205</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -21874,7 +21865,7 @@
         <v>13.4140000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -21888,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -21902,7 +21893,7 @@
         <v>8.0666666667283934E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -21916,7 +21907,7 @@
         <v>3.3333333337992333E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -21930,7 +21921,7 @@
         <v>5.3429999999998694</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -21944,7 +21935,7 @@
         <v>1.0000000004358335E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -21958,7 +21949,7 @@
         <v>6.6666666646378965E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -21972,7 +21963,7 @@
         <v>1.6666666663075031E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -22002,17 +21993,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -22023,7 +22014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -22037,7 +22028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -22052,7 +22043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -22067,7 +22058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -22082,7 +22073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -22097,7 +22088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -22112,7 +22103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -22127,7 +22118,7 @@
         <v>292030</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -22141,7 +22132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -22156,7 +22147,7 @@
         <v>154705</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -22170,7 +22161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -22178,7 +22169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -22186,7 +22177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -22201,7 +22192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -22209,7 +22200,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -22223,7 +22214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -22231,7 +22222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -22239,7 +22230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -22247,7 +22238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -22255,7 +22246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -22263,7 +22254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -22277,7 +22268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -22291,7 +22282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -22299,7 +22290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -22313,7 +22304,7 @@
         <v>28018</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -22321,7 +22312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -22329,7 +22320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -22337,20 +22328,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -22361,174 +22355,174 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -22539,187 +22533,187 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>27</v>
       </c>

--- a/DataCompilation/CompiledData.xlsx
+++ b/DataCompilation/CompiledData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="29000" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="N=100000" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="170">
+  <cellStyleXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -442,6 +442,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -468,7 +492,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="170">
+  <cellStyles count="194">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -553,6 +577,18 @@
     <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -637,6 +673,18 @@
     <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="101" builtinId="5"/>
   </cellStyles>
@@ -1523,11 +1571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141518760"/>
-        <c:axId val="2141521880"/>
+        <c:axId val="-2130521624"/>
+        <c:axId val="-2130518504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141518760"/>
+        <c:axId val="-2130521624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1585,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141521880"/>
+        <c:crossAx val="-2130518504"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +1593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141521880"/>
+        <c:axId val="-2130518504"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1560,7 +1608,7 @@
         <c:spPr>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2141518760"/>
+        <c:crossAx val="-2130521624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1623,7 +1671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2458,11 +2505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141982744"/>
-        <c:axId val="2141985864"/>
+        <c:axId val="2144005608"/>
+        <c:axId val="2143457080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141982744"/>
+        <c:axId val="2144005608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2519,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141985864"/>
+        <c:crossAx val="2143457080"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2480,7 +2527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141985864"/>
+        <c:axId val="2143457080"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2492,14 +2539,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141982744"/>
+        <c:crossAx val="2144005608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3302,11 +3348,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2132533464"/>
-        <c:axId val="2132515496"/>
+        <c:axId val="-2144686568"/>
+        <c:axId val="2142791800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132533464"/>
+        <c:axId val="-2144686568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +3362,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132515496"/>
+        <c:crossAx val="2142791800"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3324,7 +3370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132515496"/>
+        <c:axId val="2142791800"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3336,7 +3382,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132533464"/>
+        <c:crossAx val="-2144686568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4322,11 +4368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131807384"/>
-        <c:axId val="2132453368"/>
+        <c:axId val="2142640440"/>
+        <c:axId val="-2145299976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131807384"/>
+        <c:axId val="2142640440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4336,7 +4382,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132453368"/>
+        <c:crossAx val="-2145299976"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4344,7 +4390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132453368"/>
+        <c:axId val="-2145299976"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4356,7 +4402,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131807384"/>
+        <c:crossAx val="2142640440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5247,11 +5293,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141318376"/>
-        <c:axId val="2141305240"/>
+        <c:axId val="2114026408"/>
+        <c:axId val="2114281736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141318376"/>
+        <c:axId val="2114026408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,7 +5307,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141305240"/>
+        <c:crossAx val="2114281736"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5269,7 +5315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141305240"/>
+        <c:axId val="2114281736"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5281,7 +5327,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141318376"/>
+        <c:crossAx val="2114026408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6095,11 +6141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144683848"/>
-        <c:axId val="-2144680760"/>
+        <c:axId val="-2144944968"/>
+        <c:axId val="-2144941848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144683848"/>
+        <c:axId val="-2144944968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6109,7 +6155,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144680760"/>
+        <c:crossAx val="-2144941848"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6117,7 +6163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144680760"/>
+        <c:axId val="-2144941848"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6129,7 +6175,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144683848"/>
+        <c:crossAx val="-2144944968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7117,11 +7163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144587048"/>
-        <c:axId val="-2144583960"/>
+        <c:axId val="-2144857544"/>
+        <c:axId val="2114032184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144587048"/>
+        <c:axId val="-2144857544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7131,7 +7177,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144583960"/>
+        <c:crossAx val="2114032184"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7139,7 +7185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144583960"/>
+        <c:axId val="2114032184"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7151,7 +7197,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144587048"/>
+        <c:crossAx val="-2144857544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7734,11 +7780,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144529864"/>
-        <c:axId val="-2144526888"/>
+        <c:axId val="2143233944"/>
+        <c:axId val="2143237016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144529864"/>
+        <c:axId val="2143233944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7748,7 +7794,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144526888"/>
+        <c:crossAx val="2143237016"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7756,7 +7802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144526888"/>
+        <c:axId val="2143237016"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7769,7 +7815,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144529864"/>
+        <c:crossAx val="2143233944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7822,7 +7868,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8576,11 +8621,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2132440152"/>
-        <c:axId val="2141956824"/>
+        <c:axId val="-2130628376"/>
+        <c:axId val="-2130625256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132440152"/>
+        <c:axId val="-2130628376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8590,7 +8635,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141956824"/>
+        <c:crossAx val="-2130625256"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8598,7 +8643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141956824"/>
+        <c:axId val="-2130625256"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8610,14 +8655,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132440152"/>
+        <c:crossAx val="-2130628376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8667,7 +8711,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9598,11 +9641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141757192"/>
-        <c:axId val="2132670392"/>
+        <c:axId val="-2130578504"/>
+        <c:axId val="-2130575384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141757192"/>
+        <c:axId val="-2130578504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9612,7 +9655,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132670392"/>
+        <c:crossAx val="-2130575384"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9620,7 +9663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132670392"/>
+        <c:axId val="-2130575384"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -9632,14 +9675,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141757192"/>
+        <c:crossAx val="-2130578504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10523,11 +10565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131818632"/>
-        <c:axId val="2132595672"/>
+        <c:axId val="2028281128"/>
+        <c:axId val="2028284248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131818632"/>
+        <c:axId val="2028281128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10537,7 +10579,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132595672"/>
+        <c:crossAx val="2028284248"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10545,7 +10587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132595672"/>
+        <c:axId val="2028284248"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -10557,7 +10599,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131818632"/>
+        <c:crossAx val="2028281128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10613,7 +10655,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11367,11 +11408,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141399096"/>
-        <c:axId val="2141402184"/>
+        <c:axId val="2028505832"/>
+        <c:axId val="-2130337336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141399096"/>
+        <c:axId val="2028505832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11381,7 +11422,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141402184"/>
+        <c:crossAx val="-2130337336"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11389,7 +11430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141402184"/>
+        <c:axId val="-2130337336"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -11401,14 +11442,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141399096"/>
+        <c:crossAx val="2028505832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11458,7 +11498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12389,11 +12428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141988952"/>
-        <c:axId val="2132031928"/>
+        <c:axId val="-2130380296"/>
+        <c:axId val="-2130377176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141988952"/>
+        <c:axId val="-2130380296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12403,7 +12442,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132031928"/>
+        <c:crossAx val="-2130377176"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12411,7 +12450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132031928"/>
+        <c:axId val="-2130377176"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -12423,14 +12462,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141988952"/>
+        <c:crossAx val="-2130380296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13314,11 +13352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141226248"/>
-        <c:axId val="2141296024"/>
+        <c:axId val="-2130490440"/>
+        <c:axId val="-2130487320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141226248"/>
+        <c:axId val="-2130490440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13328,7 +13366,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141296024"/>
+        <c:crossAx val="-2130487320"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13336,7 +13374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141296024"/>
+        <c:axId val="-2130487320"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -13348,7 +13386,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141226248"/>
+        <c:crossAx val="-2130490440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13404,7 +13442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14158,11 +14195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131854808"/>
-        <c:axId val="2131936264"/>
+        <c:axId val="-2129712680"/>
+        <c:axId val="-2129709560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131854808"/>
+        <c:axId val="-2129712680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14172,7 +14209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131936264"/>
+        <c:crossAx val="-2129709560"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14180,7 +14217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131936264"/>
+        <c:axId val="-2129709560"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -14192,14 +14229,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131854808"/>
+        <c:crossAx val="-2129712680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14249,7 +14285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15180,11 +15215,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2131861048"/>
-        <c:axId val="2132294392"/>
+        <c:axId val="2028384264"/>
+        <c:axId val="2028387384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131861048"/>
+        <c:axId val="2028384264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15194,7 +15229,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132294392"/>
+        <c:crossAx val="2028387384"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15202,7 +15237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132294392"/>
+        <c:axId val="2028387384"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -15214,14 +15249,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131861048"/>
+        <c:crossAx val="2028384264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16070,7 +16104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -20971,7 +21005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F137"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A129" sqref="A129:D137"/>
     </sheetView>
   </sheetViews>
@@ -22540,8 +22574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K96"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:K37"/>
+    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/DataCompilation/CompiledData.xlsx
+++ b/DataCompilation/CompiledData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29000" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2020" yWindow="1400" windowWidth="26780" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="N=100000" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="194">
+  <cellStyleXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -466,6 +466,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -492,7 +516,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="194">
+  <cellStyles count="218">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -589,6 +613,18 @@
     <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -685,6 +721,18 @@
     <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="101" builtinId="5"/>
   </cellStyles>
@@ -736,7 +784,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1571,11 +1618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2130521624"/>
-        <c:axId val="-2130518504"/>
+        <c:axId val="2141968360"/>
+        <c:axId val="2141971480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130521624"/>
+        <c:axId val="2141968360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +1632,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130518504"/>
+        <c:crossAx val="2141971480"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1593,7 +1640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130518504"/>
+        <c:axId val="2141971480"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1608,20 +1655,17 @@
         <c:spPr>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="-2130521624"/>
+        <c:crossAx val="2141968360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="hundreds"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2505,11 +2549,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2144005608"/>
-        <c:axId val="2143457080"/>
+        <c:axId val="2143740856"/>
+        <c:axId val="2143743976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144005608"/>
+        <c:axId val="2143740856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2563,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143457080"/>
+        <c:crossAx val="2143743976"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2527,7 +2571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143457080"/>
+        <c:axId val="2143743976"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2539,7 +2583,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144005608"/>
+        <c:crossAx val="2143740856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3348,11 +3392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144686568"/>
-        <c:axId val="2142791800"/>
+        <c:axId val="2143792888"/>
+        <c:axId val="2143796008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144686568"/>
+        <c:axId val="2143792888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,7 +3406,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142791800"/>
+        <c:crossAx val="2143796008"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3370,7 +3414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142791800"/>
+        <c:axId val="2143796008"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3382,7 +3426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144686568"/>
+        <c:crossAx val="2143792888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4368,11 +4412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142640440"/>
-        <c:axId val="-2145299976"/>
+        <c:axId val="2143842696"/>
+        <c:axId val="2143845816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142640440"/>
+        <c:axId val="2143842696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,7 +4426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145299976"/>
+        <c:crossAx val="2143845816"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4390,7 +4434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145299976"/>
+        <c:axId val="2143845816"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4402,7 +4446,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142640440"/>
+        <c:crossAx val="2143842696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5293,11 +5337,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2114026408"/>
-        <c:axId val="2114281736"/>
+        <c:axId val="2143906088"/>
+        <c:axId val="2143909208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114026408"/>
+        <c:axId val="2143906088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5307,7 +5351,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114281736"/>
+        <c:crossAx val="2143909208"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5315,7 +5359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114281736"/>
+        <c:axId val="2143909208"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5327,7 +5371,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114026408"/>
+        <c:crossAx val="2143906088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6141,11 +6185,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144944968"/>
-        <c:axId val="-2144941848"/>
+        <c:axId val="2143958120"/>
+        <c:axId val="2143961240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144944968"/>
+        <c:axId val="2143958120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6155,7 +6199,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144941848"/>
+        <c:crossAx val="2143961240"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6163,7 +6207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144941848"/>
+        <c:axId val="2143961240"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6175,7 +6219,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144944968"/>
+        <c:crossAx val="2143958120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7163,11 +7207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144857544"/>
-        <c:axId val="2114032184"/>
+        <c:axId val="2144007960"/>
+        <c:axId val="2144011080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144857544"/>
+        <c:axId val="2144007960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7177,7 +7221,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114032184"/>
+        <c:crossAx val="2144011080"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7185,7 +7229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114032184"/>
+        <c:axId val="2144011080"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7197,7 +7241,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144857544"/>
+        <c:crossAx val="2144007960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7780,11 +7824,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2143233944"/>
-        <c:axId val="2143237016"/>
+        <c:axId val="2144058680"/>
+        <c:axId val="2144061656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143233944"/>
+        <c:axId val="2144058680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7794,7 +7838,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143237016"/>
+        <c:crossAx val="2144061656"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7802,7 +7846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143237016"/>
+        <c:axId val="2144061656"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7815,7 +7859,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143233944"/>
+        <c:crossAx val="2144058680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8621,11 +8665,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2130628376"/>
-        <c:axId val="-2130625256"/>
+        <c:axId val="2142569208"/>
+        <c:axId val="2142572328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130628376"/>
+        <c:axId val="2142569208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8635,7 +8679,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130625256"/>
+        <c:crossAx val="2142572328"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8643,7 +8687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130625256"/>
+        <c:axId val="2142572328"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8655,7 +8699,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130628376"/>
+        <c:crossAx val="2142569208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9641,11 +9685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2130578504"/>
-        <c:axId val="-2130575384"/>
+        <c:axId val="2142618184"/>
+        <c:axId val="2142621304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130578504"/>
+        <c:axId val="2142618184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9655,7 +9699,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130575384"/>
+        <c:crossAx val="2142621304"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9663,7 +9707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130575384"/>
+        <c:axId val="2142621304"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -9675,7 +9719,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130578504"/>
+        <c:crossAx val="2142618184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10565,11 +10609,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2028281128"/>
-        <c:axId val="2028284248"/>
+        <c:axId val="2139268984"/>
+        <c:axId val="2139265848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2028281128"/>
+        <c:axId val="2139268984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10579,7 +10623,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028284248"/>
+        <c:crossAx val="2139265848"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10587,7 +10631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028284248"/>
+        <c:axId val="2139265848"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -10599,7 +10643,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028281128"/>
+        <c:crossAx val="2139268984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11408,11 +11452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2028505832"/>
-        <c:axId val="-2130337336"/>
+        <c:axId val="2139216952"/>
+        <c:axId val="2139213816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2028505832"/>
+        <c:axId val="2139216952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11422,7 +11466,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130337336"/>
+        <c:crossAx val="2139213816"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11430,7 +11474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130337336"/>
+        <c:axId val="2139213816"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -11442,7 +11486,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028505832"/>
+        <c:crossAx val="2139216952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12428,11 +12472,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2130380296"/>
-        <c:axId val="-2130377176"/>
+        <c:axId val="2139167144"/>
+        <c:axId val="2139164008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130380296"/>
+        <c:axId val="2139167144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12442,7 +12486,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130377176"/>
+        <c:crossAx val="2139164008"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12450,7 +12494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130377176"/>
+        <c:axId val="2139164008"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -12462,7 +12506,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130380296"/>
+        <c:crossAx val="2139167144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13352,11 +13396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2130490440"/>
-        <c:axId val="-2130487320"/>
+        <c:axId val="2139104712"/>
+        <c:axId val="2139101576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130490440"/>
+        <c:axId val="2139104712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13366,7 +13410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130487320"/>
+        <c:crossAx val="2139101576"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13374,7 +13418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130487320"/>
+        <c:axId val="2139101576"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -13386,7 +13430,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130490440"/>
+        <c:crossAx val="2139104712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14195,11 +14239,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2129712680"/>
-        <c:axId val="-2129709560"/>
+        <c:axId val="2143627384"/>
+        <c:axId val="2143630504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129712680"/>
+        <c:axId val="2143627384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14209,7 +14253,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129709560"/>
+        <c:crossAx val="2143630504"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14217,7 +14261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129709560"/>
+        <c:axId val="2143630504"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -14229,7 +14273,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129712680"/>
+        <c:crossAx val="2143627384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15215,11 +15259,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2028384264"/>
-        <c:axId val="2028387384"/>
+        <c:axId val="2143677448"/>
+        <c:axId val="2143680568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2028384264"/>
+        <c:axId val="2143677448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15229,7 +15273,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028387384"/>
+        <c:crossAx val="2143680568"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15237,7 +15281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028387384"/>
+        <c:axId val="2143680568"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -15249,7 +15293,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2028384264"/>
+        <c:crossAx val="2143677448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21005,7 +21049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A118" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A129" sqref="A129:D137"/>
     </sheetView>
   </sheetViews>
@@ -22252,8 +22296,8 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="D110" s="9">
-        <f t="shared" ref="D110:D115" si="0">(C110/B110)</f>
-        <v>1.1428571428571428</v>
+        <f t="shared" ref="D110:D115" si="0">(C110/B110)-1</f>
+        <v>0.14285714285714279</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -22268,7 +22312,7 @@
       </c>
       <c r="D111" s="9">
         <f t="shared" si="0"/>
-        <v>1.0344827586206897</v>
+        <v>3.4482758620689724E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -22283,7 +22327,7 @@
       </c>
       <c r="D112" s="9">
         <f t="shared" si="0"/>
-        <v>1.1864406779661016</v>
+        <v>0.18644067796610164</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -22298,7 +22342,7 @@
       </c>
       <c r="D113" s="9">
         <f t="shared" si="0"/>
-        <v>0.68877551020408156</v>
+        <v>-0.31122448979591844</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -22313,7 +22357,7 @@
       </c>
       <c r="D114" s="9">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -22328,7 +22372,7 @@
       </c>
       <c r="D115" s="9">
         <f t="shared" si="0"/>
-        <v>1.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -22364,8 +22408,8 @@
         <v>42.333333333333336</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" ref="D121:D126" si="1">(C121/B121)</f>
-        <v>1.1238938053097347</v>
+        <f t="shared" ref="D121:D126" si="1">(C121/B121)-1</f>
+        <v>0.12389380530973471</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -22380,7 +22424,7 @@
       </c>
       <c r="D122" s="9">
         <f t="shared" si="1"/>
-        <v>1.0601503759398496</v>
+        <v>6.0150375939849621E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -22395,7 +22439,7 @@
       </c>
       <c r="D123" s="9">
         <f t="shared" si="1"/>
-        <v>0.86376811594202896</v>
+        <v>-0.13623188405797104</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -22410,7 +22454,7 @@
       </c>
       <c r="D124" s="9">
         <f t="shared" si="1"/>
-        <v>0.58711507293354948</v>
+        <v>-0.41288492706645052</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -22425,7 +22469,7 @@
       </c>
       <c r="D125" s="9">
         <f t="shared" si="1"/>
-        <v>1.2228260869565217</v>
+        <v>0.22282608695652173</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -22440,7 +22484,7 @@
       </c>
       <c r="D126" s="9">
         <f t="shared" si="1"/>
-        <v>0.72822822822822819</v>
+        <v>-0.27177177177177181</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -22476,8 +22520,8 @@
         <v>44.333333333333336</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" ref="D132:D137" si="2">(C132/B132)</f>
-        <v>1.0555555555555556</v>
+        <f>(C132/B132)-1</f>
+        <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -22491,8 +22535,8 @@
         <v>53.666666666666664</v>
       </c>
       <c r="D133" s="9">
-        <f t="shared" si="2"/>
-        <v>1.0254777070063694</v>
+        <f t="shared" ref="D133:D137" si="2">(C133/B133)-1</f>
+        <v>2.5477707006369421E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -22507,7 +22551,7 @@
       </c>
       <c r="D134" s="9">
         <f t="shared" si="2"/>
-        <v>0.90106544901065455</v>
+        <v>-9.8934550989345449E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -22522,7 +22566,7 @@
       </c>
       <c r="D135" s="9">
         <f t="shared" si="2"/>
-        <v>0.56367713004484299</v>
+        <v>-0.43632286995515701</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -22537,7 +22581,7 @@
       </c>
       <c r="D136" s="9">
         <f t="shared" si="2"/>
-        <v>1.1820987654320989</v>
+        <v>0.18209876543209891</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -22552,7 +22596,7 @@
       </c>
       <c r="D137" s="9">
         <f t="shared" si="2"/>
-        <v>0.8887688984881208</v>
+        <v>-0.1112311015118792</v>
       </c>
     </row>
   </sheetData>
@@ -22574,7 +22618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="H34" sqref="H34:K49"/>
     </sheetView>
   </sheetViews>
@@ -22985,8 +23029,8 @@
         <v>3</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" ref="K37:K42" si="0">(J37/I37)</f>
-        <v>142.85714285714286</v>
+        <f t="shared" ref="K37:K48" si="0">(J37/I37)-1</f>
+        <v>141.85714285714286</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -23005,7 +23049,7 @@
       </c>
       <c r="K38" s="9">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -23024,7 +23068,7 @@
       </c>
       <c r="K39" s="9">
         <f t="shared" si="0"/>
-        <v>1.2857142857142858</v>
+        <v>0.28571428571428581</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -23043,7 +23087,7 @@
       </c>
       <c r="K40" s="9">
         <f t="shared" si="0"/>
-        <v>95.238095238095227</v>
+        <v>94.238095238095227</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -23062,7 +23106,7 @@
       </c>
       <c r="K41" s="9">
         <f t="shared" si="0"/>
-        <v>380.95238095238091</v>
+        <v>379.95238095238091</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -23081,7 +23125,7 @@
       </c>
       <c r="K42" s="9">
         <f t="shared" si="0"/>
-        <v>292030</v>
+        <v>292029</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -23099,8 +23143,8 @@
         <v>15</v>
       </c>
       <c r="K43" s="9">
-        <f>(J43/I43)</f>
-        <v>2.1428571428571428</v>
+        <f t="shared" si="0"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -23118,8 +23162,8 @@
         <v>154705</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" ref="K44:K49" si="1">(J44/I44)</f>
-        <v>154705</v>
+        <f t="shared" si="0"/>
+        <v>154704</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -23137,8 +23181,8 @@
         <v>1</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666674</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -23156,8 +23200,8 @@
         <v>7</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="1"/>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -23175,8 +23219,8 @@
         <v>7</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
+        <f t="shared" si="0"/>
+        <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -23194,8 +23238,8 @@
         <v>7</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -23213,8 +23257,8 @@
         <v>28018</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="1"/>
-        <v>7004.5</v>
+        <f>(J49/I49)-1</f>
+        <v>7003.5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
